--- a/03_Output/Compare.xlsx
+++ b/03_Output/Compare.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99294151c07b659b/Desktop/Ders/03_Data/DataScience_Project/BSE_DataProject/03_Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC1048A4A95C668C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AFF696-2626-4A37-A52F-D79FACD92EA6}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048A4A95C668C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434599C1-A1CC-4C96-8C5E-D350283FC557}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSE_Comp" sheetId="1" r:id="rId1"/>
+    <sheet name="RMSE_Comp_Formatted" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>RF</t>
   </si>
@@ -63,14 +64,45 @@
     <t>Medeiros Code</t>
   </si>
   <si>
-    <t>RMSE Comparison (S1:2001-2015, S2:2015-2025)</t>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Tablo: RMSE Comparison (S1:2001-2015, S2:2015-2025)</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table: RMSE Comparison </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(S1:2001-15, S2:2015-25)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +110,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -95,15 +150,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,25 +533,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="4" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -467,182 +616,296 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.30869000000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.36718000000000001</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
+      <c r="D5" s="3">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.36969000000000002</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.36965999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.30112</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.35958000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.23116999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.28121000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.371</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.31072</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.33471000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.27889000000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.34126000000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.2263</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.26275999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.30869000000000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.36718000000000001</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.31852999999999998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.33424999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.27834999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.34827000000000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.22420000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.26036999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.36969000000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.36965999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.29909000000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.37525999999999998</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.22578999999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.28236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.31072</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.33471000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.27889000000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.34126000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2263</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.26275999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.31852999999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.33424999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.27834999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.34827000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.26036999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="3">
         <v>0.29311999999999999</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="3">
         <v>0.29770999999999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E11" s="3">
         <v>0.32678000000000001</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
+      <c r="F11" s="3">
+        <v>0.22384000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.25924999999999998</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C9">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G9">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B7:B11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F11">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G11">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G11">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -656,4 +919,649 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E3DD-54AB-41D3-9611-FD5FA2E7BF1A}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.371</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.29909000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.37525999999999998</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.22578999999999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.28236</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.27889000000000003</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.34126000000000001</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.2263</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.26275999999999999</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.27834999999999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.34827000000000002</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.26036999999999999</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.29770999999999997</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.32678000000000001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.22384000000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.25924999999999998</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C7:C11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03_Output/Compare.xlsx
+++ b/03_Output/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99294151c07b659b/Desktop/Ders/03_Data/DataScience_Project/BSE_DataProject/03_Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC1048A4A95C668C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20976A8-495B-4166-B97E-D540F8AAC19D}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC1048A4A95C668C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25DC83A-65CC-46D9-AE75-6BDC3D3FB066}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>RF</t>
   </si>
   <si>
+    <t>2001-2015</t>
+  </si>
+  <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>2015-2025</t>
   </si>
   <si>
     <t>..</t>
@@ -95,9 +101,6 @@
     </r>
   </si>
   <si>
-    <t>2001-15</t>
-  </si>
-  <si>
     <t>Current Results</t>
   </si>
   <si>
@@ -110,16 +113,19 @@
     <t>Medeiros (2021)</t>
   </si>
   <si>
-    <t>1 Step</t>
-  </si>
-  <si>
-    <t>3 Step</t>
-  </si>
-  <si>
-    <t>Medeiros Paper vs Medeiros Code</t>
-  </si>
-  <si>
-    <t>Table: RMSE Comparison Between Author's Calculations and Medeiros (2021)</t>
+    <t>Table: RMSE Comparisons of Different Models</t>
+  </si>
+  <si>
+    <t>Table: RMSE Comparisons for 2001-2015 Between Author's Calculations and Medeiros (2021)</t>
+  </si>
+  <si>
+    <t>Table: Medeiros Paper vs Medeiros Code (2001-2015)</t>
+  </si>
+  <si>
+    <t>1 Step Ahead</t>
+  </si>
+  <si>
+    <t>3 Step Ahead</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,13 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,72 +618,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>0.33600000000000002</v>
@@ -707,7 +706,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -726,7 +725,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>0.30869000000000002</v>
@@ -735,21 +734,21 @@
         <v>0.36718000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>0.28699999999999998</v>
@@ -772,7 +771,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>0.28100000000000003</v>
@@ -795,7 +794,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>0.28199999999999997</v>
@@ -899,7 +898,7 @@
         <v>0.87238095238095226</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1054,13 +1053,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC6E3DD-54AB-41D3-9611-FD5FA2E7BF1A}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I26" sqref="I26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="13" width="10.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
@@ -1083,7 +1085,7 @@
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1104,11 +1106,11 @@
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="11"/>
@@ -1126,16 +1128,16 @@
       <c r="A4" s="11"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1151,7 +1153,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9">
         <v>0.33500000000000002</v>
@@ -1179,7 +1181,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9">
         <v>0.35885400931297956</v>
@@ -1207,7 +1209,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9">
         <v>0.36946028203313008</v>
@@ -1235,7 +1237,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9">
         <v>0.29909000000000002</v>
@@ -1263,7 +1265,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9">
         <v>0.27889000000000003</v>
@@ -1291,7 +1293,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9">
         <v>0.27834999999999999</v>
@@ -1365,7 +1367,7 @@
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1386,11 +1388,11 @@
       <c r="A14" s="11"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="11"/>
@@ -1408,16 +1410,16 @@
       <c r="A15" s="11"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1433,7 +1435,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="13">
         <f>C5/C$5</f>
@@ -1465,7 +1467,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="13">
         <f>C6/C$5</f>
@@ -1497,7 +1499,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="13">
         <f>C7/C$5</f>
@@ -1529,7 +1531,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="13">
         <f>C8/C$5</f>
@@ -1561,7 +1563,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="13">
         <f>C9/C$5</f>
@@ -1593,7 +1595,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" ref="C21:F21" si="0">C10/C$5</f>
@@ -1710,107 +1712,122 @@
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="18" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="25"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="24" t="s">
+      <c r="I28" s="20"/>
+      <c r="J28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="25"/>
+      <c r="K28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>22</v>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>8</v>
+      <c r="I29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="13">
+        <f>C5</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K29" s="14">
+        <f>RMSE_Comp!B5</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="L29" s="13">
+        <f>D5</f>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="M29" s="14">
+        <f>RMSE_Comp!C5</f>
+        <v>0.47299999999999998</v>
       </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -1819,38 +1836,42 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C30" s="13">
-        <f t="shared" ref="C30:D30" si="2">C5</f>
-        <v>0.33500000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="D30" s="14">
-        <f>RMSE_Comp!B5</f>
-        <v>0.33600000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="E30" s="13">
-        <f>D5</f>
-        <v>0.47099999999999997</v>
+        <f>K30/K$29</f>
+        <v>0.91872023809523806</v>
       </c>
       <c r="F30" s="14">
-        <f>RMSE_Comp!C5</f>
-        <v>0.47299999999999998</v>
+        <f>M30/M$29</f>
+        <v>0.77627906976744188</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="J30" s="13">
-        <v>1</v>
+        <f>C7</f>
+        <v>0.36946028203313008</v>
       </c>
       <c r="K30" s="14">
-        <v>1</v>
+        <f>RMSE_Comp!B7</f>
+        <v>0.30869000000000002</v>
       </c>
       <c r="L30" s="13">
-        <v>1</v>
+        <f>D7</f>
+        <v>0.35551427538145358</v>
       </c>
       <c r="M30" s="14">
-        <v>1</v>
+        <f>RMSE_Comp!C7</f>
+        <v>0.36718000000000001</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -1859,40 +1880,41 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31" s="13">
-        <f>C7</f>
-        <v>0.36946028203313008</v>
+        <v>0.86</v>
       </c>
       <c r="D31" s="14">
-        <f>RMSE_Comp!B7</f>
-        <v>0.30869000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="E31" s="13">
-        <f>D7</f>
-        <v>0.35551427538145358</v>
+        <f>K31/K$29</f>
+        <v>0.85416666666666652</v>
       </c>
       <c r="F31" s="14">
-        <f>RMSE_Comp!C7</f>
-        <v>0.36718000000000001</v>
+        <f>M31/M$29</f>
+        <v>0.71035940803382669</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J31" s="13">
-        <v>0.92</v>
+        <f>C8</f>
+        <v>0.29909000000000002</v>
       </c>
       <c r="K31" s="14">
-        <v>0.78</v>
+        <f>RMSE_Comp!B8</f>
+        <v>0.28699999999999998</v>
       </c>
       <c r="L31" s="13">
-        <f>D31/D$30</f>
-        <v>0.91872023809523806</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="M31" s="14">
-        <f t="shared" ref="M31:M35" si="3">F31/F$30</f>
-        <v>0.77627906976744188</v>
+        <f>RMSE_Comp!C8</f>
+        <v>0.33600000000000002</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
@@ -1901,39 +1923,42 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="13">
-        <f t="shared" ref="C32:D32" si="4">C8</f>
-        <v>0.29909000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="D32" s="14">
-        <f>RMSE_Comp!B8</f>
-        <v>0.28699999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="E32" s="13">
-        <v>0.35799999999999998</v>
+        <f>K32/K$29</f>
+        <v>0.83630952380952384</v>
       </c>
       <c r="F32" s="14">
-        <f>RMSE_Comp!C8</f>
-        <v>0.33600000000000002</v>
+        <f>M32/M$29</f>
+        <v>0.74207188160676529</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="J32" s="13">
-        <v>0.86</v>
+        <f>C9</f>
+        <v>0.27889000000000003</v>
       </c>
       <c r="K32" s="14">
-        <v>0.7</v>
+        <f>RMSE_Comp!B9</f>
+        <v>0.28100000000000003</v>
       </c>
       <c r="L32" s="13">
-        <f>D32/D$30</f>
-        <v>0.85416666666666652</v>
+        <f>D9</f>
+        <v>0.34126000000000001</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" si="3"/>
-        <v>0.71035940803382669</v>
+        <f>RMSE_Comp!C9</f>
+        <v>0.35099999999999998</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -1942,124 +1967,100 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" s="13">
-        <f t="shared" ref="C33:D33" si="5">C9</f>
-        <v>0.27889000000000003</v>
+        <v>0.84</v>
       </c>
       <c r="D33" s="14">
-        <f>RMSE_Comp!B9</f>
-        <v>0.28100000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="E33" s="13">
-        <f>D9</f>
-        <v>0.34126000000000001</v>
+        <f>K33/K$29</f>
+        <v>0.83928571428571419</v>
       </c>
       <c r="F33" s="14">
-        <f>RMSE_Comp!C9</f>
-        <v>0.35099999999999998</v>
+        <f>M33/M$29</f>
+        <v>0.7167019027484145</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J33" s="13">
-        <v>0.84</v>
+        <f>C10</f>
+        <v>0.27834999999999999</v>
       </c>
       <c r="K33" s="14">
-        <v>0.71</v>
+        <f>RMSE_Comp!B10</f>
+        <v>0.28199999999999997</v>
       </c>
       <c r="L33" s="13">
-        <f>D33/D$30</f>
-        <v>0.83630952380952384</v>
+        <f>D10</f>
+        <v>0.34827000000000002</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" si="3"/>
-        <v>0.74207188160676529</v>
+        <f>RMSE_Comp!C10</f>
+        <v>0.33900000000000002</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="13">
-        <f t="shared" ref="C34:D34" si="6">C10</f>
-        <v>0.27834999999999999</v>
-      </c>
-      <c r="D34" s="14">
-        <f>RMSE_Comp!B10</f>
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="E34" s="13">
-        <f>D10</f>
-        <v>0.34827000000000002</v>
-      </c>
-      <c r="F34" s="14">
-        <f>RMSE_Comp!C10</f>
-        <v>0.33900000000000002</v>
+      <c r="B34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="E34" s="15">
+        <f>K34/K$29</f>
+        <v>0.87238095238095226</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0.71</v>
-      </c>
-      <c r="L34" s="13">
-        <f>D34/D$30</f>
-        <v>0.83928571428571419</v>
-      </c>
-      <c r="M34" s="14">
-        <f t="shared" si="3"/>
-        <v>0.7167019027484145</v>
+      <c r="I34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f>C11</f>
+        <v>0.29770999999999997</v>
+      </c>
+      <c r="K34" s="16">
+        <f>RMSE_Comp!B11</f>
+        <v>0.29311999999999999</v>
+      </c>
+      <c r="L34" s="15">
+        <f>D11</f>
+        <v>0.32678000000000001</v>
+      </c>
+      <c r="M34" s="16">
+        <f>RMSE_Comp!C11</f>
+        <v>0.33437</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="15">
-        <f t="shared" ref="C35:D35" si="7">C11</f>
-        <v>0.29770999999999997</v>
-      </c>
-      <c r="D35" s="16">
-        <f>RMSE_Comp!B11</f>
-        <v>0.29311999999999999</v>
-      </c>
-      <c r="E35" s="15">
-        <f>D11</f>
-        <v>0.32678000000000001</v>
-      </c>
-      <c r="F35" s="16">
-        <f>RMSE_Comp!C11</f>
-        <v>0.33437</v>
-      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="15">
-        <v>0.86</v>
-      </c>
-      <c r="K35" s="16">
-        <v>0.69</v>
-      </c>
-      <c r="L35" s="15">
-        <f>D35/D$30</f>
-        <v>0.87238095238095226</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
@@ -2118,53 +2119,16 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B26:F26"/>
+  <mergeCells count="11">
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B2:F2"/>
@@ -2364,7 +2328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J35">
+  <conditionalFormatting sqref="C30:C34">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2376,7 +2340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K35">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2388,7 +2352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
+  <conditionalFormatting sqref="C29:C34">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2400,7 +2364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K35">
+  <conditionalFormatting sqref="D29:D34">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2412,7 +2376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L35">
+  <conditionalFormatting sqref="E30:E34">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2424,7 +2388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31:M35">
+  <conditionalFormatting sqref="F30:F34">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2436,7 +2400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:L35">
+  <conditionalFormatting sqref="E29:E34">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2448,7 +2412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
+  <conditionalFormatting sqref="F29:F34">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2460,7 +2424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C35">
+  <conditionalFormatting sqref="J30:J34">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2472,7 +2436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D35">
+  <conditionalFormatting sqref="K30:K34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2484,7 +2448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C35">
+  <conditionalFormatting sqref="J29:J34">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2496,7 +2460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D35">
+  <conditionalFormatting sqref="K29:K34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2508,7 +2472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E35">
+  <conditionalFormatting sqref="L30:L34">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2520,7 +2484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F35">
+  <conditionalFormatting sqref="M30:M34">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2532,7 +2496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E35">
+  <conditionalFormatting sqref="L29:L34">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2544,7 +2508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F35">
+  <conditionalFormatting sqref="M29:M34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2556,7 +2520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:D35">
+  <conditionalFormatting sqref="J29:K34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2568,7 +2532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F35">
+  <conditionalFormatting sqref="L29:M34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
